--- a/Document/Sample_Data/Product_Data.xlsx
+++ b/Document/Sample_Data/Product_Data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlseh\Desktop\Document\Sample_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="6810" tabRatio="629" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="6810" tabRatio="629" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -27,12 +22,12 @@
     <sheet name="스피커" sheetId="25" r:id="rId13"/>
     <sheet name="모니터" sheetId="26" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="576">
   <si>
     <t>135.7mm x 44.4mm</t>
   </si>
@@ -1779,8 +1774,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2247,15 +2242,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -2265,7 +2260,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2285,7 +2280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -2303,7 +2298,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -2321,7 +2316,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -2337,7 +2332,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -2355,7 +2350,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -2371,7 +2366,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -2389,7 +2384,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2407,7 +2402,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -2425,7 +2420,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -2443,7 +2438,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -2461,7 +2456,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -2477,7 +2472,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -2495,7 +2490,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -2513,7 +2508,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -2531,7 +2526,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -2549,7 +2544,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -2565,7 +2560,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -2583,7 +2578,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -2601,7 +2596,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -2619,7 +2614,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -2645,14 +2640,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -2662,7 +2657,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2682,7 +2677,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -2702,7 +2697,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -2722,7 +2717,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -2742,7 +2737,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -2760,7 +2755,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -2780,7 +2775,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -2798,7 +2793,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -2816,7 +2811,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -2834,7 +2829,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -2854,7 +2849,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -2874,7 +2869,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -2892,7 +2887,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -2910,7 +2905,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -2930,7 +2925,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -2950,7 +2945,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -2966,7 +2961,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -2984,7 +2979,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -3002,7 +2997,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -3020,7 +3015,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -3038,7 +3033,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -3064,14 +3059,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -3081,7 +3076,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -3101,7 +3096,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -3121,7 +3116,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -3141,7 +3136,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -3161,7 +3156,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -3181,7 +3176,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -3201,7 +3196,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -3221,7 +3216,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -3241,7 +3236,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -3261,7 +3256,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -3281,7 +3276,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -3301,7 +3296,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -3321,7 +3316,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -3341,7 +3336,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -3361,7 +3356,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -3381,7 +3376,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -3401,7 +3396,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -3421,7 +3416,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -3441,7 +3436,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -3461,7 +3456,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -3481,7 +3476,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -3509,14 +3504,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -3526,7 +3521,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -3546,7 +3541,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -3564,7 +3559,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -3584,7 +3579,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -3604,7 +3599,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -3622,7 +3617,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -3642,7 +3637,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -3662,7 +3657,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -3682,7 +3677,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -3702,7 +3697,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -3722,7 +3717,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -3742,7 +3737,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -3760,7 +3755,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -3778,7 +3773,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -3796,7 +3791,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -3816,7 +3811,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -3834,7 +3829,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -3854,7 +3849,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -3874,7 +3869,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -3894,7 +3889,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -3912,7 +3907,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -3940,14 +3935,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -3957,7 +3952,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -3977,7 +3972,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -3997,7 +3992,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -4017,7 +4012,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -4037,7 +4032,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -4057,7 +4052,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -4077,7 +4072,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -4097,7 +4092,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -4117,7 +4112,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -4137,7 +4132,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -4157,7 +4152,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -4177,7 +4172,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -4197,7 +4192,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -4217,7 +4212,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -4237,7 +4232,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -4257,7 +4252,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -4277,7 +4272,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -4297,7 +4292,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -4317,7 +4312,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -4337,7 +4332,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -4357,7 +4352,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -4385,14 +4380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -4402,7 +4397,7 @@
     <col min="6" max="6" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -4422,7 +4417,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -4440,7 +4435,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -4458,7 +4453,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -4476,7 +4471,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -4494,7 +4489,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -4512,7 +4507,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -4530,7 +4525,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -4548,7 +4543,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -4566,7 +4561,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -4584,7 +4579,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -4602,7 +4597,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -4620,7 +4615,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -4638,7 +4633,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -4656,7 +4651,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -4674,7 +4669,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -4692,7 +4687,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -4710,7 +4705,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -4728,7 +4723,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -4746,7 +4741,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -4764,7 +4759,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -4790,15 +4785,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -4808,7 +4803,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -4828,7 +4823,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -4846,7 +4841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -4864,7 +4859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -4882,7 +4877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -4900,7 +4895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
@@ -4918,7 +4913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -4936,7 +4931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -4954,7 +4949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>41</v>
       </c>
@@ -4972,7 +4967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -4990,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -5008,7 +5003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -5026,7 +5021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -5044,7 +5039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -5062,7 +5057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -5080,7 +5075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
@@ -5098,7 +5093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
@@ -5116,7 +5111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
@@ -5134,7 +5129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -5152,7 +5147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -5170,7 +5165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
@@ -5196,15 +5191,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -5214,7 +5209,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -5234,7 +5229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -5254,7 +5249,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -5274,7 +5269,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -5294,7 +5289,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -5314,7 +5309,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -5334,7 +5329,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -5354,7 +5349,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -5374,7 +5369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -5394,7 +5389,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -5414,7 +5409,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -5434,7 +5429,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -5454,7 +5449,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -5474,7 +5469,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -5494,7 +5489,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -5514,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -5532,7 +5527,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -5552,7 +5547,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -5572,7 +5567,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -5592,7 +5587,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -5612,7 +5607,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -5640,14 +5635,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -5657,7 +5652,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -5677,7 +5672,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -5697,7 +5692,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -5717,7 +5712,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -5735,7 +5730,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -5753,7 +5748,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -5771,7 +5766,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -5789,7 +5784,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -5807,7 +5802,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -5825,7 +5820,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -5843,7 +5838,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -5861,7 +5856,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -5879,7 +5874,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -5897,7 +5892,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -5915,7 +5910,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -5933,7 +5928,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -5951,7 +5946,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -5969,7 +5964,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -5987,7 +5982,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -6005,7 +6000,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -6023,7 +6018,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -6049,14 +6044,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -6066,7 +6061,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -6086,7 +6081,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -6106,7 +6101,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -6126,7 +6121,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -6146,7 +6141,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -6166,7 +6161,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -6186,7 +6181,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -6206,7 +6201,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -6226,7 +6221,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -6246,7 +6241,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -6266,7 +6261,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -6286,7 +6281,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -6306,7 +6301,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -6326,7 +6321,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -6346,7 +6341,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -6366,7 +6361,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -6386,7 +6381,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -6406,7 +6401,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -6426,7 +6421,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -6446,7 +6441,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -6466,7 +6461,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -6494,14 +6489,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -6511,7 +6506,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -6531,7 +6526,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -6551,7 +6546,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -6571,7 +6566,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -6591,7 +6586,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -6611,7 +6606,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -6631,7 +6626,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -6651,7 +6646,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -6671,7 +6666,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -6691,7 +6686,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -6711,7 +6706,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -6731,7 +6726,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -6751,7 +6746,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -6771,7 +6766,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -6791,7 +6786,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -6811,7 +6806,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -6831,7 +6826,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -6851,7 +6846,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -6871,7 +6866,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -6891,7 +6886,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -6911,25 +6906,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="8">
-        <v>49000</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>227</v>
-      </c>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6939,14 +6922,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -6956,7 +6939,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -6976,7 +6959,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -6996,7 +6979,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -7016,7 +6999,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -7036,7 +7019,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -7056,7 +7039,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -7076,7 +7059,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -7096,7 +7079,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -7116,7 +7099,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -7136,7 +7119,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -7156,7 +7139,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -7176,7 +7159,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -7196,7 +7179,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -7216,7 +7199,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -7236,7 +7219,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -7256,7 +7239,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -7276,7 +7259,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -7296,7 +7279,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -7316,7 +7299,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -7336,7 +7319,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -7356,7 +7339,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -7384,14 +7367,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -7401,7 +7384,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -7421,7 +7404,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -7439,7 +7422,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -7457,7 +7440,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -7475,7 +7458,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -7493,7 +7476,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -7511,7 +7494,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -7529,7 +7512,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -7547,7 +7530,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -7565,7 +7548,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -7583,7 +7566,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -7601,7 +7584,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -7619,7 +7602,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -7637,7 +7620,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -7655,7 +7638,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -7673,7 +7656,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -7691,7 +7674,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -7709,7 +7692,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -7727,7 +7710,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -7745,7 +7728,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -7763,7 +7746,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -7789,14 +7772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -7806,7 +7789,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -7826,7 +7809,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -7846,7 +7829,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -7866,7 +7849,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -7886,7 +7869,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -7906,7 +7889,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -7926,7 +7909,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -7946,7 +7929,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -7966,7 +7949,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -7986,7 +7969,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -8006,7 +7989,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -8026,7 +8009,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -8046,7 +8029,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -8066,7 +8049,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -8086,7 +8069,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -8106,7 +8089,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -8126,7 +8109,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -8144,7 +8127,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -8162,7 +8145,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -8180,7 +8163,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -8198,7 +8181,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
